--- a/www/ig/cda/tddui/StructureDefinition-tddui-documentreference.xlsx
+++ b/www/ig/cda/tddui/StructureDefinition-tddui-documentreference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T10:50:10+02:00</t>
+    <t>2025-10-17T08:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1979,17 +1979,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1998,29 +1998,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="30.83984375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.14453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.83203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="70.46875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="134.0859375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
